--- a/wenjian/功能要点.xlsx
+++ b/wenjian/功能要点.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -18,12 +18,103 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>基础数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息库管理中配置管理人后还要配置资金账户；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息库管理中把法人或者自然人配置成托管人、发行人、管理人、交易对手、融资人等等；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇率行情信息取汇率接口数据，即期、远期、掉期汇率怎么取；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息库管理中法人来自于【市场数据】市场机构管理；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息库管理中自然人来自于【业务数据】自然人管理；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构标的行情信息是自己维护的；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他都是从市场数据获得；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券行情信息取中债估值数据；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金行情信息取基金接口数据；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益率曲线信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构标的行情信息有新建删除功能；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用品种管理是在建产品或者组合时所涉及的一些费用的基本信息的新建维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构标的信息管理中调整规则与观察日有关；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动投和被动投区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金账户信息管理，基金申购的是可以通过通道也可以通过基金账户，当用基金账户时必须在基金账户信息管理里面先维护；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,11 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,12 +424,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="60.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="2">
+        <v>4.041666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>